--- a/docs/__20250823_ca_mcqs_by_slm_gpt2-large.xlsx
+++ b/docs/__20250823_ca_mcqs_by_slm_gpt2-large.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aninfosysbv-my.sharepoint.com/personal/abdul_aninfosys_com/Documents/Workspace/Walsh_DBA_AIML/Courses/MS Capstone Project/Week_10_Final_submission/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace-capstone\Automated_MCQ_By_SLM_On_CA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{A5803583-E482-435D-B547-9FA92352E3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB72F075-B666-4DC2-A455-E8C852413DE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D33141-C4CB-4E40-83BF-0FB76C6CEAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3980" yWindow="3150" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-    <pivotCache cacheId="3" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="310">
   <si>
     <t>link</t>
   </si>
@@ -1690,18 +1686,6 @@
   </si>
   <si>
     <t>The MCQ answer is not relevant to input context.</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of correctness</t>
-  </si>
-  <si>
-    <t>Count of distractor_quality</t>
   </si>
   <si>
     <t>Average_score</t>
@@ -1806,7 +1790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1835,10 +1819,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1877,12 +1857,33 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[__20250823_ca_mcqs_by_slm_gpt2-large.xlsx]Sheet2!PivotTable8</c:name>
-    <c:fmtId val="1"/>
-  </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MCQ AVG SCORE DISTRIBUTION</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1913,184 +1914,272 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>Sheet1!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Average_score</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E2B3-47F8-A64B-967A4185A517}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E2B3-47F8-A64B-967A4185A517}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$P$2:$P$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>2.2286091250000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1135035000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4842024999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.110566625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4742375000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9801207500000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5998384999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.101070125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10704474999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1144375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.10804050000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.169712499999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1962125000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9778694999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9770776249999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.2778750000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2246561250000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2655749999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.2058874999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.229481125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9755877499999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.3296624999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2657500000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9228124999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7305105000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.2077999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8562077500000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.7541624999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.10411849999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2486499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.2805250000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.1125657499999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9846874999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8688447500000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1026384999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.1273999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.2429874999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.2061499999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.9865993749999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.2120624999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.9618249999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.10959125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2371228749999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.22936025</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.2395499999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.1974875000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.2440125000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.1944874999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.245889375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7293207500000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.0538250000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.359283875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.0420750000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1660624999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.982820625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.2978875000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.2895250000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.8424999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.10181087500000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.1287750000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.2291000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.22533425</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.0699125000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8540748750000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.2440375000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.3332625000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.10053037500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C62-490E-8348-0CF702990856}"/>
+              <c16:uniqueId val="{00000000-44BB-4649-A8B9-07F3B8682B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2101,10 +2190,237 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:smooth val="0"/>
+        <c:axId val="1296667456"/>
+        <c:axId val="1296670336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1296667456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>MCQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296670336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1296670336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t> MCQ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> AVG. SCORE</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296667456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2113,37 +2429,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2185,22 +2470,1321 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>MCQ Correctness  Distribution</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correctness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3FA-4EEB-BA71-A3F78F753B62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1243879328"/>
+        <c:axId val="1243879808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1243879328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>MCQ ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243879808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1243879808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t> Correctness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Score </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243879328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MCQ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Distractor Quality Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distractor_quality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20A6-490A-B1DD-D4CC13BD09B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1296702016"/>
+        <c:axId val="1296707296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1296702016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>MCQ ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296707296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1296707296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Distractor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Quality</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1296702016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2244,8 +3828,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2302,7 +3966,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2353,13 +4017,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2370,19 +4027,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2420,7 +4070,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2463,23 +4113,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2584,8 +4233,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2717,12 +4366,302 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2731,6 +4670,721 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2767,23 +5421,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>835025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BACCA50-9F65-6F52-95CD-90F3A4D93857}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1915B3EC-50C2-250A-E702-1EAB50921AA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,630 +5455,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAEC3F3-89B5-4137-B9DB-1F876E6887F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C1EE12-BE73-4BCD-8F7A-9A445DB83F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abdul Wazed" refreshedDate="45906.979291898147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{9663CA00-1137-4C70-962C-70BF291C2813}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="L1:L75" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="correctness" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="2">
-        <n v="0"/>
-        <n v="5"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abdul Wazed" refreshedDate="45906.990422222225" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{5A854064-13BE-4BAA-9AF6-A696FFD9B322}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="M1:M75" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="distractor_quality" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="2">
-        <n v="5"/>
-        <n v="0"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FE2A6773-96C3-4A78-94C1-630121404E27}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of correctness" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E611F696-C3D1-48E9-B644-5ED877E52EBD}" name="PivotTable10" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A18:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of distractor_quality" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3712,13 +5819,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3787,10 +5893,10 @@
         <v>225</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -3839,7 +5945,7 @@
         <v>2.2286091250000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -3888,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -3937,7 +6043,7 @@
         <v>2.1135035000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -3988,7 +6094,7 @@
         <v>1.4842024999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="406" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="406" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -4039,7 +6145,7 @@
         <v>0.110566625</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
@@ -4090,7 +6196,7 @@
         <v>9.4742375000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -4155,7 +6261,7 @@
       <c r="E9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>230</v>
       </c>
       <c r="G9" s="6">
@@ -4188,7 +6294,7 @@
         <v>2.9801207500000002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -4239,7 +6345,7 @@
         <v>1.5998384999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -4288,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -4339,7 +6445,7 @@
         <v>0.101070125</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -4390,7 +6496,7 @@
         <v>0.10704474999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -4439,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
@@ -4488,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -4537,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -4586,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="290" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
@@ -4637,7 +6743,7 @@
         <v>0.1144375</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -4688,7 +6794,7 @@
         <v>0.10804050000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
@@ -4739,7 +6845,7 @@
         <v>9.169712499999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -4790,7 +6896,7 @@
         <v>9.1962125000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -4841,7 +6947,7 @@
         <v>1.9778694999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="203" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>86</v>
       </c>
@@ -4892,7 +6998,7 @@
         <v>1.9770776249999999</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>88</v>
       </c>
@@ -4994,7 +7100,7 @@
         <v>3.2246561250000001</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>93</v>
       </c>
@@ -5045,7 +7151,7 @@
         <v>9.2655749999999995E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>96</v>
       </c>
@@ -5096,7 +7202,7 @@
         <v>9.2058874999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>99</v>
       </c>
@@ -5147,7 +7253,7 @@
         <v>2.229481125</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>101</v>
       </c>
@@ -5198,7 +7304,7 @@
         <v>1.9755877499999999</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>103</v>
       </c>
@@ -5247,7 +7353,7 @@
         <v>9.3296624999999994E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
@@ -5296,7 +7402,7 @@
         <v>9.2657500000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>109</v>
       </c>
@@ -5398,7 +7504,7 @@
         <v>2.7305105000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>113</v>
       </c>
@@ -5498,7 +7604,7 @@
         <v>2.8562077500000003</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
@@ -5549,7 +7655,7 @@
         <v>9.7541624999999993E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
@@ -5600,7 +7706,7 @@
         <v>0.10411849999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>122</v>
       </c>
@@ -5651,7 +7757,7 @@
         <v>9.2486499999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>127</v>
       </c>
@@ -5702,7 +7808,7 @@
         <v>9.2805250000000006E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>130</v>
       </c>
@@ -5851,7 +7957,7 @@
         <v>2.8688447500000001</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>136</v>
       </c>
@@ -5902,7 +8008,7 @@
         <v>2.1026384999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>138</v>
       </c>
@@ -5953,7 +8059,7 @@
         <v>9.1273999999999994E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>141</v>
       </c>
@@ -6004,7 +8110,7 @@
         <v>9.2429874999999995E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>144</v>
       </c>
@@ -6104,7 +8210,7 @@
         <v>2.9865993749999999</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>149</v>
       </c>
@@ -6155,7 +8261,7 @@
         <v>9.2120624999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>152</v>
       </c>
@@ -6206,7 +8312,7 @@
         <v>9.9618249999999992E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>154</v>
       </c>
@@ -6257,7 +8363,7 @@
         <v>0.10959125</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>156</v>
       </c>
@@ -6308,7 +8414,7 @@
         <v>2.2371228749999998</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>158</v>
       </c>
@@ -6359,7 +8465,7 @@
         <v>2.22936025</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>160</v>
       </c>
@@ -6410,7 +8516,7 @@
         <v>9.2395499999999992E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>163</v>
       </c>
@@ -6461,7 +8567,7 @@
         <v>9.1974875000000011E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>166</v>
       </c>
@@ -6512,7 +8618,7 @@
         <v>9.2440125000000012E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>169</v>
       </c>
@@ -6563,7 +8669,7 @@
         <v>9.1944874999999995E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>172</v>
       </c>
@@ -6614,7 +8720,7 @@
         <v>2.245889375</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>174</v>
       </c>
@@ -6665,7 +8771,7 @@
         <v>1.7293207500000001</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>178</v>
       </c>
@@ -6716,7 +8822,7 @@
         <v>9.0538250000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>181</v>
       </c>
@@ -6767,7 +8873,7 @@
         <v>2.359283875</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>183</v>
       </c>
@@ -6818,7 +8924,7 @@
         <v>9.0420750000000008E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>186</v>
       </c>
@@ -6918,7 +9024,7 @@
         <v>2.982820625</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>191</v>
       </c>
@@ -6969,7 +9075,7 @@
         <v>9.2978875000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>194</v>
       </c>
@@ -7020,7 +9126,7 @@
         <v>9.2895250000000013E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" ht="116" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>197</v>
       </c>
@@ -7071,7 +9177,7 @@
         <v>9.8424999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="145" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>199</v>
       </c>
@@ -7122,7 +9228,7 @@
         <v>0.10181087500000001</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>201</v>
       </c>
@@ -7173,7 +9279,7 @@
         <v>9.1287750000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>204</v>
       </c>
@@ -7224,7 +9330,7 @@
         <v>9.2291000000000012E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>207</v>
       </c>
@@ -7275,7 +9381,7 @@
         <v>2.22533425</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>209</v>
       </c>
@@ -7373,7 +9479,7 @@
         <v>2.8540748750000002</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>214</v>
       </c>
@@ -7424,7 +9530,7 @@
         <v>9.2440375000000005E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>217</v>
       </c>
@@ -7475,7 +9581,7 @@
         <v>9.3332625000000002E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>222</v>
       </c>
@@ -7534,40 +9640,40 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="4"/>
-      <c r="G77" s="13">
+      <c r="G77" s="11">
         <f>AVERAGE(G2:G75)</f>
         <v>1.9847297297297299E-4</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="11">
         <f t="shared" ref="H77:N77" si="2">AVERAGE(H2:H75)</f>
         <v>3.4632418918918911E-2</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="11">
         <f t="shared" si="2"/>
         <v>0.6892378513513514</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="11">
         <f t="shared" si="2"/>
         <v>1.6621621621621621</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K77" s="11">
         <f t="shared" si="2"/>
         <v>1.5405405405405406</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L77" s="11">
         <f t="shared" si="2"/>
         <v>0.60810810810810811</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="11">
         <f t="shared" si="2"/>
         <v>1.6891891891891893</v>
       </c>
-      <c r="N77" s="13">
+      <c r="N77" s="11">
         <f t="shared" si="2"/>
         <v>0.6216216216216216</v>
       </c>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="4"/>
@@ -7789,13 +9895,7 @@
       <c r="A150" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O75" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="5"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D05B2C1C-53F9-448C-A0BD-2FBB3BB49196}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{4827F24F-401B-406B-8B9B-C4A3CD0B4627}"/>
@@ -7836,10 +9936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46025B58-14CD-42F3-8D18-56C991760685}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7847,73 +9947,8 @@
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B21">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>